--- a/data/trans_dic/P15D$ingresado-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P15D$ingresado-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 39,35</t>
+          <t>7,27; 38,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,55; 24,46</t>
+          <t>7,11; 25,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,83; 24,7</t>
+          <t>6,03; 25,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,47; 43,65</t>
+          <t>16,56; 43,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 19,57</t>
+          <t>2,45; 20,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,62; 18,58</t>
+          <t>5,77; 17,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 20,51</t>
+          <t>4,63; 20,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,94; 21,46</t>
+          <t>9,99; 21,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,65; 23,15</t>
+          <t>6,64; 22,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,82; 17,95</t>
+          <t>7,47; 17,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 18,58</t>
+          <t>6,68; 18,81</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,16; 26,01</t>
+          <t>13,75; 26,51</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,94; 21,49</t>
+          <t>4,92; 19,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 11,6</t>
+          <t>3,71; 12,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 14,22</t>
+          <t>4,04; 13,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,61; 18,7</t>
+          <t>7,3; 18,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,67</t>
+          <t>0,0; 13,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 12,54</t>
+          <t>2,76; 12,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,47; 16,32</t>
+          <t>3,12; 17,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 19,83</t>
+          <t>5,37; 20,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,75; 15,12</t>
+          <t>3,66; 15,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 10,21</t>
+          <t>4,13; 10,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 13,16</t>
+          <t>5,06; 12,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,04; 16,25</t>
+          <t>7,89; 16,99</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 51,5</t>
+          <t>5,66; 48,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1014,12 +1015,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 40,02</t>
+          <t>5,3; 38,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,32; 44,64</t>
+          <t>4,48; 44,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1030,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,9</t>
+          <t>0,0; 18,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 41,53</t>
+          <t>7,64; 42,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 16,47</t>
+          <t>1,52; 14,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 29,58</t>
+          <t>3,23; 30,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,23</t>
+          <t>0,0; 10,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,28; 32,49</t>
+          <t>9,39; 32,73</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,09; 30,55</t>
+          <t>4,3; 27,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,97; 22,21</t>
+          <t>8,29; 21,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 12,05</t>
+          <t>5,36; 12,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 16,6</t>
+          <t>7,3; 17,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,26; 22,88</t>
+          <t>11,23; 23,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 11,32</t>
+          <t>1,26; 10,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,03</t>
+          <t>4,93; 11,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 16,91</t>
+          <t>6,6; 16,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 16,34</t>
+          <t>7,83; 15,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 15,27</t>
+          <t>6,36; 15,32</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,91</t>
+          <t>5,48; 10,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,31; 14,87</t>
+          <t>8,17; 14,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 17,61</t>
+          <t>10,6; 17,44</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya consecuencia del último accidente fue, al menos, el ingreso en hospital o clínica</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4913</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10869</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6356</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10277</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4039</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11934</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7867</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11936</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8952</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22802</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>14223</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22212</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1830; 9673</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5316; 18891</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2755; 11782</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5895; 15539</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1115; 9273</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6455; 19454</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3451; 15070</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7945; 16978</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4693; 15642</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13942; 32670</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8037; 22634</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15831; 30524</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8221</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12379</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10059</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16056</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7377</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6946</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10325</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9243</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>19756</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17005</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26381</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3865; 15011</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6752; 22493</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4891; 16309</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9493; 23809</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4760</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3141; 13878</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2637; 15153</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5474; 20541</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4159; 17940</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>12212; 30489</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10407; 26613</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18293; 39417</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5950</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5741</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6208</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1741</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>12158</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7482</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1099; 9315</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1908</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1631; 11974</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1488; 14672</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1920</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5311</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2368; 13201</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>470; 4627</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1055; 10066</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5871</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5803; 20229</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2755; 17392</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17115</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>23248</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>22365</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>32074</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>20308</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>21020</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>24002</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>22175</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>43556</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>43385</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>56076</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10199; 26830</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>15167; 34994</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14433; 33843</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22325; 46888</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1180; 10186</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12527; 30078</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12554; 31425</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16635; 33683</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>13786; 33224</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>29418; 56293</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>31692; 57267</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>43595; 71729</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>